--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H2">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.155977333333334</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N2">
-        <v>9.467932000000001</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q2">
-        <v>36.09529358259823</v>
+        <v>30.20096841199112</v>
       </c>
       <c r="R2">
-        <v>324.8576422433841</v>
+        <v>271.80871570792</v>
       </c>
       <c r="S2">
-        <v>0.2074522678555085</v>
+        <v>0.1705332186840663</v>
       </c>
       <c r="T2">
-        <v>0.2074522678555085</v>
+        <v>0.1705332186840663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H3">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.497861</v>
       </c>
       <c r="O3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q3">
-        <v>36.20939411074244</v>
+        <v>33.13203860211956</v>
       </c>
       <c r="R3">
-        <v>325.884546996682</v>
+        <v>298.188347419076</v>
       </c>
       <c r="S3">
-        <v>0.2081080434699349</v>
+        <v>0.1870838413956565</v>
       </c>
       <c r="T3">
-        <v>0.2081080434699349</v>
+        <v>0.1870838413956565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H4">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.496042666666666</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N4">
-        <v>7.488128</v>
+        <v>9.981073</v>
       </c>
       <c r="O4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q4">
-        <v>28.54754116781511</v>
+        <v>34.81766009489645</v>
       </c>
       <c r="R4">
-        <v>256.927870510336</v>
+        <v>313.358940854068</v>
       </c>
       <c r="S4">
-        <v>0.164072696719023</v>
+        <v>0.1966018957416275</v>
       </c>
       <c r="T4">
-        <v>0.164072696719023</v>
+        <v>0.1966018957416275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.754308333333334</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H5">
-        <v>17.262925</v>
+        <v>31.395316</v>
       </c>
       <c r="I5">
-        <v>0.2916282118266253</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J5">
-        <v>0.2916282118266253</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.155977333333334</v>
+        <v>0.020115</v>
       </c>
       <c r="N5">
-        <v>9.467932000000001</v>
+        <v>0.060345</v>
       </c>
       <c r="O5">
-        <v>0.3579027849973545</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="P5">
-        <v>0.3579027849973545</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="Q5">
-        <v>18.16046666901112</v>
+        <v>0.21050559378</v>
       </c>
       <c r="R5">
-        <v>163.4442000211</v>
+        <v>1.89455034402</v>
       </c>
       <c r="S5">
-        <v>0.1043745491965476</v>
+        <v>0.001188643886136141</v>
       </c>
       <c r="T5">
-        <v>0.1043745491965476</v>
+        <v>0.001188643886136141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.165953666666667</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N6">
-        <v>9.497861</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O6">
-        <v>0.3590341484727349</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P6">
-        <v>0.3590341484727349</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q6">
-        <v>18.21787356704722</v>
+        <v>16.60620497094445</v>
       </c>
       <c r="R6">
-        <v>163.960862103425</v>
+        <v>149.4558447385</v>
       </c>
       <c r="S6">
-        <v>0.1047044867037988</v>
+        <v>0.0937688336741581</v>
       </c>
       <c r="T6">
-        <v>0.1047044867037988</v>
+        <v>0.0937688336741581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>17.262925</v>
       </c>
       <c r="I7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.496042666666666</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N7">
-        <v>7.488128</v>
+        <v>9.497861</v>
       </c>
       <c r="O7">
-        <v>0.2830630665299106</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P7">
-        <v>0.2830630665299106</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q7">
-        <v>14.36299911715556</v>
+        <v>18.21787356704722</v>
       </c>
       <c r="R7">
-        <v>129.2669920544</v>
+        <v>163.960862103425</v>
       </c>
       <c r="S7">
-        <v>0.08254917592627889</v>
+        <v>0.1028693045397318</v>
       </c>
       <c r="T7">
-        <v>0.08254917592627889</v>
+        <v>0.1028693045397318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.273219</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H8">
-        <v>6.819656999999999</v>
+        <v>17.262925</v>
       </c>
       <c r="I8">
-        <v>0.1152066857836043</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J8">
-        <v>0.1152066857836043</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.155977333333334</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N8">
-        <v>9.467932000000001</v>
+        <v>9.981073</v>
       </c>
       <c r="O8">
-        <v>0.3579027849973545</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P8">
-        <v>0.3579027849973545</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q8">
-        <v>7.174227637702667</v>
+        <v>19.14472384650278</v>
       </c>
       <c r="R8">
-        <v>64.568048739324</v>
+        <v>172.302514618525</v>
       </c>
       <c r="S8">
-        <v>0.04123279369226711</v>
+        <v>0.1081028705379342</v>
       </c>
       <c r="T8">
-        <v>0.04123279369226712</v>
+        <v>0.1081028705379342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.273219</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H9">
-        <v>6.819656999999999</v>
+        <v>17.262925</v>
       </c>
       <c r="I9">
-        <v>0.1152066857836043</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J9">
-        <v>0.1152066857836043</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.165953666666667</v>
+        <v>0.020115</v>
       </c>
       <c r="N9">
-        <v>9.497861</v>
+        <v>0.060345</v>
       </c>
       <c r="O9">
-        <v>0.3590341484727349</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="P9">
-        <v>0.3590341484727349</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="Q9">
-        <v>7.196906028186333</v>
+        <v>0.115747912125</v>
       </c>
       <c r="R9">
-        <v>64.772154253677</v>
+        <v>1.041731209125</v>
       </c>
       <c r="S9">
-        <v>0.04136313432868231</v>
+        <v>0.0006535838103389926</v>
       </c>
       <c r="T9">
-        <v>0.04136313432868231</v>
+        <v>0.0006535838103389927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H10">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.496042666666666</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N10">
-        <v>7.488128</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O10">
-        <v>0.2830630665299106</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P10">
-        <v>0.2830630665299106</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q10">
-        <v>5.674051614677332</v>
+        <v>6.195294752306668</v>
       </c>
       <c r="R10">
-        <v>51.06646453209599</v>
+        <v>55.75765277076001</v>
       </c>
       <c r="S10">
-        <v>0.03261075776265489</v>
+        <v>0.03498243964878565</v>
       </c>
       <c r="T10">
-        <v>0.03261075776265489</v>
+        <v>0.03498243964878565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2670106666666667</v>
+        <v>2.146766</v>
       </c>
       <c r="H11">
-        <v>0.8010320000000001</v>
+        <v>6.440298</v>
       </c>
       <c r="I11">
-        <v>0.0135320943453039</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J11">
-        <v>0.0135320943453039</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.155977333333334</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N11">
-        <v>9.467932000000001</v>
+        <v>9.497861</v>
       </c>
       <c r="O11">
-        <v>0.3579027849973545</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P11">
-        <v>0.3579027849973545</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q11">
-        <v>0.8426796117582224</v>
+        <v>6.796561689175333</v>
       </c>
       <c r="R11">
-        <v>7.584116505824001</v>
+        <v>61.16905520257801</v>
       </c>
       <c r="S11">
-        <v>0.004843174253031218</v>
+        <v>0.0383775621042567</v>
       </c>
       <c r="T11">
-        <v>0.004843174253031218</v>
+        <v>0.0383775621042567</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2670106666666667</v>
+        <v>2.146766</v>
       </c>
       <c r="H12">
-        <v>0.8010320000000001</v>
+        <v>6.440298</v>
       </c>
       <c r="I12">
-        <v>0.0135320943453039</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J12">
-        <v>0.0135320943453039</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.165953666666667</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N12">
-        <v>9.497861</v>
+        <v>9.981073</v>
       </c>
       <c r="O12">
-        <v>0.3590341484727349</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P12">
-        <v>0.3590341484727349</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q12">
-        <v>0.8453433991724445</v>
+        <v>7.142342719972667</v>
       </c>
       <c r="R12">
-        <v>7.608090592552001</v>
+        <v>64.281084479754</v>
       </c>
       <c r="S12">
-        <v>0.004858483970318896</v>
+        <v>0.04033005420111115</v>
       </c>
       <c r="T12">
-        <v>0.004858483970318897</v>
+        <v>0.04033005420111115</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.146766</v>
+      </c>
+      <c r="H13">
+        <v>6.440298</v>
+      </c>
+      <c r="I13">
+        <v>0.1139338891693565</v>
+      </c>
+      <c r="J13">
+        <v>0.1139338891693565</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.020115</v>
+      </c>
+      <c r="N13">
+        <v>0.060345</v>
+      </c>
+      <c r="O13">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="P13">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="Q13">
+        <v>0.04318219809</v>
+      </c>
+      <c r="R13">
+        <v>0.3886397828100001</v>
+      </c>
+      <c r="S13">
+        <v>0.0002438332152030199</v>
+      </c>
+      <c r="T13">
+        <v>0.00024383321520302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4760280000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.428084</v>
+      </c>
+      <c r="I14">
+        <v>0.02526391856099382</v>
+      </c>
+      <c r="J14">
+        <v>0.02526391856099382</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.885873333333334</v>
+      </c>
+      <c r="N14">
+        <v>8.657620000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.3070415651026022</v>
+      </c>
+      <c r="P14">
+        <v>0.3070415651026022</v>
+      </c>
+      <c r="Q14">
+        <v>1.373756511120001</v>
+      </c>
+      <c r="R14">
+        <v>12.36380860008</v>
+      </c>
+      <c r="S14">
+        <v>0.007757073095592225</v>
+      </c>
+      <c r="T14">
+        <v>0.007757073095592225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4760280000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.428084</v>
+      </c>
+      <c r="I15">
+        <v>0.02526391856099382</v>
+      </c>
+      <c r="J15">
+        <v>0.02526391856099382</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.165953666666667</v>
+      </c>
+      <c r="N15">
+        <v>9.497861</v>
+      </c>
+      <c r="O15">
+        <v>0.3368406220840099</v>
+      </c>
+      <c r="P15">
+        <v>0.3368406220840099</v>
+      </c>
+      <c r="Q15">
+        <v>1.507082592036</v>
+      </c>
+      <c r="R15">
+        <v>13.563743328324</v>
+      </c>
+      <c r="S15">
+        <v>0.008509914044364924</v>
+      </c>
+      <c r="T15">
+        <v>0.008509914044364924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.2670106666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.8010320000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.0135320943453039</v>
-      </c>
-      <c r="J13">
-        <v>0.0135320943453039</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.496042666666666</v>
-      </c>
-      <c r="N13">
-        <v>7.488128</v>
-      </c>
-      <c r="O13">
-        <v>0.2830630665299106</v>
-      </c>
-      <c r="P13">
-        <v>0.2830630665299106</v>
-      </c>
-      <c r="Q13">
-        <v>0.6664700164551111</v>
-      </c>
-      <c r="R13">
-        <v>5.998230148096001</v>
-      </c>
-      <c r="S13">
-        <v>0.003830436121953784</v>
-      </c>
-      <c r="T13">
-        <v>0.003830436121953785</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4760280000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.428084</v>
+      </c>
+      <c r="I16">
+        <v>0.02526391856099382</v>
+      </c>
+      <c r="J16">
+        <v>0.02526391856099382</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.327024333333334</v>
+      </c>
+      <c r="N16">
+        <v>9.981073</v>
+      </c>
+      <c r="O16">
+        <v>0.3539776838580724</v>
+      </c>
+      <c r="P16">
+        <v>0.3539776838580724</v>
+      </c>
+      <c r="Q16">
+        <v>1.583756739348</v>
+      </c>
+      <c r="R16">
+        <v>14.253810654132</v>
+      </c>
+      <c r="S16">
+        <v>0.008942863377399558</v>
+      </c>
+      <c r="T16">
+        <v>0.008942863377399558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4760280000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.428084</v>
+      </c>
+      <c r="I17">
+        <v>0.02526391856099382</v>
+      </c>
+      <c r="J17">
+        <v>0.02526391856099382</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.020115</v>
+      </c>
+      <c r="N17">
+        <v>0.060345</v>
+      </c>
+      <c r="O17">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="P17">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="Q17">
+        <v>0.009575303220000001</v>
+      </c>
+      <c r="R17">
+        <v>0.08617772898000001</v>
+      </c>
+      <c r="S17">
+        <v>5.406804363710958E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.40680436371096E-05</v>
       </c>
     </row>
   </sheetData>
